--- a/documents/article/Polarization Measures.xlsx
+++ b/documents/article/Polarization Measures.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameshoughton/Google Drive/MIT PhD/Factionalism_Research/detective-game-interdependent-diffusion/documents/article/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70140050-3D62-E049-BEC1-D7B01319DA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E5DDA-6EDE-6943-B11A-95FC7DB7F405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="-18140" windowWidth="27240" windowHeight="16040" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
+    <workbookView xWindow="-11000" yWindow="-21600" windowWidth="24840" windowHeight="21600" activeTab="1" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>The polarization =−ztytyt()min((),1())CCC of the group C is then defined as the fraction of agents in that group that have the minority orientation. Note that polarization equals zero when there is full consensus and all agents are either positively or negatively oriented. It is maximized when there are exactly half the group in each orientation.</t>
   </si>
@@ -141,6 +142,87 @@
   </si>
   <si>
     <t>interdependent diffusants</t>
+  </si>
+  <si>
+    <t>Text, quotes?</t>
+  </si>
+  <si>
+    <t>Type of study</t>
+  </si>
+  <si>
+    <t>Type of polarization</t>
+  </si>
+  <si>
+    <t>Affective Polarization</t>
+  </si>
+  <si>
+    <t>Distrust, dislike, or animosity towards the "other side"</t>
+  </si>
+  <si>
+    <t>alignment with partisan identity</t>
+  </si>
+  <si>
+    <t>Partisanship</t>
+  </si>
+  <si>
+    <t>Attitude Polarization</t>
+  </si>
+  <si>
+    <t>Dispersion</t>
+  </si>
+  <si>
+    <t>Bimodality</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Consolidation</t>
+  </si>
+  <si>
+    <t>Association of different social attitudes with one another</t>
+  </si>
+  <si>
+    <t>Correlation of social attitudes and indiidual characteristics/identities</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>People with different positions on an issue cluster into separate camps</t>
+  </si>
+  <si>
+    <t>Opinions are diverse / far apart from one another</t>
+  </si>
+  <si>
+    <t>DiMaggio et al.</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Camp Formation</t>
+  </si>
+  <si>
+    <t>Chronbach's Alpha, compares PC1</t>
+  </si>
+  <si>
+    <t>difference btw group means</t>
+  </si>
+  <si>
+    <t>DiMaggio</t>
+  </si>
+  <si>
+    <t>Baldassarri and Gelman</t>
+  </si>
+  <si>
+    <t>Issue Alignment</t>
+  </si>
+  <si>
+    <t>mean (abs?) pairwise correlation btw issues</t>
+  </si>
+  <si>
+    <t>correlation btw issue and party</t>
   </si>
 </sst>
 </file>
@@ -555,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824CCE-5FBE-5E48-9E92-D70FC6CBEBEE}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,66 +649,188 @@
     <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="75.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="21.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:6" ht="200" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC207-4273-4D48-BC7B-5C60CA585AA6}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/documents/article/Polarization Measures.xlsx
+++ b/documents/article/Polarization Measures.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameshoughton/Google Drive/MIT PhD/Factionalism_Research/detective-game-interdependent-diffusion/documents/article/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E5DDA-6EDE-6943-B11A-95FC7DB7F405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56298433-B2E5-984C-8F14-E6D8467E46CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11000" yWindow="-21600" windowWidth="24840" windowHeight="21600" activeTab="1" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
+    <workbookView xWindow="16080" yWindow="-18180" windowWidth="24840" windowHeight="17540" activeTab="1" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -653,7 +654,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
@@ -733,7 +734,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/article/Polarization Measures.xlsx
+++ b/documents/article/Polarization Measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameshoughton/Google Drive/MIT PhD/Factionalism_Research/detective-game-interdependent-diffusion/documents/article/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56298433-B2E5-984C-8F14-E6D8467E46CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4BC019-756F-0947-9AE8-0720CDE89F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-18180" windowWidth="24840" windowHeight="17540" activeTab="1" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>The polarization =−ztytyt()min((),1())CCC of the group C is then defined as the fraction of agents in that group that have the minority orientation. Note that polarization equals zero when there is full consensus and all agents are either positively or negatively oriented. It is maximized when there are exactly half the group in each orientation.</t>
   </si>
   <si>
-    <t>Degroot derivative with "ghost" agents</t>
-  </si>
-  <si>
     <t>Simulation</t>
   </si>
   <si>
+    <t>Four Diffusants, continuum of levels of belief</t>
+  </si>
+  <si>
+    <t>We first assess the extent of attitude polarization on two dimensions, dispersion and bimodality. Following DiMaggio and colleagues (1996), we use variance to measure the level of issue dispersion and kurtosis to measure bimodality. Dispersion refers to the average distance between two people randomly chosen from a population and it captures the intensity of opinion divergence. The more a population is polarized, the greater the average distance between its members. Kurtosis measures the extent to which the population splits evenly into two groups. Kurtosis increases as attitudes radicalize and reaches its maximum value when moderation gives way to extremist views on either side of the issue.</t>
+  </si>
+  <si>
+    <t>DiMaggio, P., Evans, J. &amp; Bryson, B. dimaggio.pdf. Am J Sociol 102, 690–755 (1996).</t>
+  </si>
+  <si>
+    <t>Descriptive Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispersion (variance between individuals), Bimodality (kurtosis), Constraint - alignment between beliefs (Chronbach's Alpha ), Consolidation - alignment between issues and ascribed characteristics - identity polarization "we regard two groups as polarized in a manner likely to lead to intergroup conflict only to the extent that (a) between-group differences are substantial and (b) within-group polarization is minimal." </t>
+  </si>
+  <si>
+    <t>many issues</t>
+  </si>
+  <si>
+    <t>Goldberg, A. &amp; Stein, S. K. Beyond Social Contagion: Associative Diffusion and the Emergence of Cultural Variation. Am Sociol Rev 83, 897–932 (2018).</t>
+  </si>
+  <si>
+    <t>Distance between individuals is the manhattan distance between all adopted beliefs (normalized by the total number of beliefs possible), "Interpretative distance between two agents is defined as the distance between their respective association matrices R and R*. This distance is calculated as the pairwise absolute difference between all corresponding cells in the two matrices Interpretative distanceat the group level is defined as the mean inter-pretative distance between all pairs of agents.
+Preference similarity, measured as the correlation between two agents’ preference vectors, quantifies the extent to which two agents value the same practices. Preference congruence, in contrast, measures the extent to which agents’ preferences follow the same pattern. We measure preference congruence as the absolute correlation between two agents’ preference vectors.
+We define group-level preference congruence as the mean absolute correlation between all pairs of agents’ preference vectors. 
+On the behavioral dimension, we use mutual information to measure convergence in agents’ behaviors. The mutual information between two categorical variables X and Y measures the extent to which one variable predicts the other. 
+We evaluate the extent to which agents are clustered into subgroups of similar preferences. To do so, we use the K-means algorithm to partition agents’ preference vectors into clusters of similar preferences. We use the gap statistic (Tibshirani, Walther, and Hastie 2001) to evaluate the optimal number of agent clusters (see the Appendix for more details)</t>
+  </si>
+  <si>
+    <t>interdependent diffusants</t>
+  </si>
+  <si>
+    <t>Type of study</t>
+  </si>
+  <si>
+    <t>Affective Polarization</t>
+  </si>
+  <si>
+    <t>Distrust, dislike, or animosity towards the "other side"</t>
+  </si>
+  <si>
+    <t>alignment with partisan identity</t>
+  </si>
+  <si>
+    <t>Partisanship</t>
+  </si>
+  <si>
+    <t>Attitude Polarization</t>
+  </si>
+  <si>
+    <t>Dispersion</t>
+  </si>
+  <si>
+    <t>Bimodality</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Consolidation</t>
+  </si>
+  <si>
+    <t>Association of different social attitudes with one another</t>
+  </si>
+  <si>
+    <t>Correlation of social attitudes and indiidual characteristics/identities</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>People with different positions on an issue cluster into separate camps</t>
+  </si>
+  <si>
+    <t>Opinions are diverse / far apart from one another</t>
+  </si>
+  <si>
+    <t>DiMaggio et al.</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Camp Formation</t>
+  </si>
+  <si>
+    <t>Chronbach's Alpha, compares PC1</t>
+  </si>
+  <si>
+    <t>difference btw group means</t>
+  </si>
+  <si>
+    <t>DiMaggio</t>
+  </si>
+  <si>
+    <t>Baldassarri and Gelman</t>
+  </si>
+  <si>
+    <t>Issue Alignment</t>
+  </si>
+  <si>
+    <t>mean (abs?) pairwise correlation btw issues</t>
+  </si>
+  <si>
+    <t>correlation btw issue and party</t>
+  </si>
+  <si>
+    <t>Similarity Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Diffusant, binary positions </t>
+  </si>
+  <si>
+    <t>Manhattan Distance btw cells, Correlation btw vectors</t>
+  </si>
+  <si>
+    <t>"Congruence" as average intersubjective correlation, and also mutual information</t>
+  </si>
+  <si>
+    <t>Bimodality/Multimodality</t>
+  </si>
+  <si>
+    <t>Gap Statistic</t>
+  </si>
+  <si>
+    <t>Pairwise distance or similarity between members of the population</t>
+  </si>
+  <si>
+    <t>&lt;explanation&gt;</t>
+  </si>
+  <si>
     <r>
       <t>Sikder, Orowa, et al. "A minimalistic model of bias, polarization and misinformation in social networks." </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color rgb="FF222222"/>
@@ -54,6 +182,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF222222"/>
         <rFont val="Calibri"/>
@@ -69,6 +198,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -80,16 +210,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -97,140 +217,168 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>72</t>
+      <t> 72, 784–811 (2007).</t>
+    </r>
+  </si>
+  <si>
+    <t>Construct quotes</t>
+  </si>
+  <si>
+    <t>Operationalization Quotes</t>
+  </si>
+  <si>
+    <t>Simulation ((Degroot derivative with "ghost" agents - agents choose +1 if they have been exposed to more +1 than -1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polarization is the extent to which positions regarding an issue are balanced "in favor" vs "opposed" even when </t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Forces individuals to a binary position (from their bayesian estimate) and then says that the polarization is the size of the minority fraction. SO, if you have a normal distribution tightly centered on the midpoint, you register as much polarization as something with half the weight at either end. No accout of Bimodality.</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Extent to which the population splits evenly into "in favor" and "opposed"</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Association between social attitudes</t>
+  </si>
+  <si>
+    <t>Associtation between attitude and ascribed characteristics (e.g. race, gender)</t>
+  </si>
+  <si>
+    <t>Distance of individual positions from central position</t>
+  </si>
+  <si>
+    <t>Attitudes cluster in separate Modes</t>
+  </si>
+  <si>
+    <t>Binary rounding to same level</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Becker, J., Porter, E. &amp; Centola, D. The wisdom of partisan crowds. </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <i/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times"/>
+        <family val="1"/>
       </rPr>
-      <t>, 784–811 (2007).</t>
-    </r>
-  </si>
-  <si>
-    <t>Single Diffusant, binary positions</t>
-  </si>
-  <si>
-    <t>Four Diffusants, continuum of levels of belief</t>
-  </si>
-  <si>
-    <t>We first assess the extent of attitude polarization on two dimensions, dispersion and bimodality. Following DiMaggio and colleagues (1996), we use variance to measure the level of issue dispersion and kurtosis to measure bimodality. Dispersion refers to the average distance between two people randomly chosen from a population and it captures the intensity of opinion divergence. The more a population is polarized, the greater the average distance between its members. Kurtosis measures the extent to which the population splits evenly into two groups. Kurtosis increases as attitudes radicalize and reaches its maximum value when moderation gives way to extremist views on either side of the issue.</t>
-  </si>
-  <si>
-    <t>DiMaggio, P., Evans, J. &amp; Bryson, B. dimaggio.pdf. Am J Sociol 102, 690–755 (1996).</t>
-  </si>
-  <si>
-    <t>Descriptive Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispersion (variance between individuals), Bimodality (kurtosis), Constraint - alignment between beliefs (Chronbach's Alpha ), Consolidation - alignment between issues and ascribed characteristics - identity polarization "we regard two groups as polarized in a manner likely to lead to intergroup conflict only to the extent that (a) between-group differences are substantial and (b) within-group polarization is minimal." </t>
-  </si>
-  <si>
-    <t>many issues</t>
-  </si>
-  <si>
-    <t>Goldberg, A. &amp; Stein, S. K. Beyond Social Contagion: Associative Diffusion and the Emergence of Cultural Variation. Am Sociol Rev 83, 897–932 (2018).</t>
-  </si>
-  <si>
-    <t>Distance between individuals is the manhattan distance between all adopted beliefs (normalized by the total number of beliefs possible), "Interpretative distance between two agents is defined as the distance between their respective association matrices R and R*. This distance is calculated as the pairwise absolute difference between all corresponding cells in the two matrices Interpretative distanceat the group level is defined as the mean inter-pretative distance between all pairs of agents.
-Preference similarity, measured as the correlation between two agents’ preference vectors, quantifies the extent to which two agents value the same practices. Preference congruence, in contrast, measures the extent to which agents’ preferences follow the same pattern. We measure preference congruence as the absolute correlation between two agents’ preference vectors.
-We define group-level preference congruence as the mean absolute correlation between all pairs of agents’ preference vectors. 
-On the behavioral dimension, we use mutual information to measure convergence in agents’ behaviors. The mutual information between two categorical variables X and Y measures the extent to which one variable predicts the other. 
-We evaluate the extent to which agents are clustered into subgroups of similar preferences. To do so, we use the K-means algorithm to partition agents’ preference vectors into clusters of similar preferences. We use the gap statistic (Tibshirani, Walther, and Hastie 2001) to evaluate the optimal number of agent clusters (see the Appendix for more details)</t>
-  </si>
-  <si>
-    <t>interdependent diffusants</t>
-  </si>
-  <si>
-    <t>Text, quotes?</t>
-  </si>
-  <si>
-    <t>Type of study</t>
-  </si>
-  <si>
-    <t>Type of polarization</t>
-  </si>
-  <si>
-    <t>Affective Polarization</t>
-  </si>
-  <si>
-    <t>Distrust, dislike, or animosity towards the "other side"</t>
-  </si>
-  <si>
-    <t>alignment with partisan identity</t>
-  </si>
-  <si>
-    <t>Partisanship</t>
-  </si>
-  <si>
-    <t>Attitude Polarization</t>
-  </si>
-  <si>
-    <t>Dispersion</t>
-  </si>
-  <si>
-    <t>Bimodality</t>
-  </si>
-  <si>
-    <t>Constraint</t>
-  </si>
-  <si>
-    <t>Consolidation</t>
-  </si>
-  <si>
-    <t>Association of different social attitudes with one another</t>
-  </si>
-  <si>
-    <t>Correlation of social attitudes and indiidual characteristics/identities</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>People with different positions on an issue cluster into separate camps</t>
-  </si>
-  <si>
-    <t>Opinions are diverse / far apart from one another</t>
-  </si>
-  <si>
-    <t>DiMaggio et al.</t>
-  </si>
-  <si>
-    <t>Kurtosis</t>
-  </si>
-  <si>
-    <t>Camp Formation</t>
-  </si>
-  <si>
-    <t>Chronbach's Alpha, compares PC1</t>
-  </si>
-  <si>
-    <t>difference btw group means</t>
-  </si>
-  <si>
-    <t>DiMaggio</t>
-  </si>
-  <si>
-    <t>Baldassarri and Gelman</t>
-  </si>
-  <si>
-    <t>Issue Alignment</t>
-  </si>
-  <si>
-    <t>mean (abs?) pairwise correlation btw issues</t>
-  </si>
-  <si>
-    <t>correlation btw issue and party</t>
+      <t>Proc National Acad Sci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>116,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t> 10717–10722 (2019).</t>
+    </r>
+  </si>
+  <si>
+    <t>"increase of in-group belief similarity" and "decrease in between-group similarity"</t>
+  </si>
+  <si>
+    <t>Average normalized distance between camps, and mean pairwise distance between individuals in opposing camps</t>
+  </si>
+  <si>
+    <t>Independent multiple issue</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>"the average distance (absolute value of the arithmetic difference; SI Appendix) between the mean normalized belief for Republicans and the mean normalized belief for Democrats" 
+"the average pairwise distance between individual Republicans and Democrats. This metric measures the average distance between every possible two-person cross-party pairing and reflects the expected distance between the belief of a randomly selected Democrat and that of a randomly selected Republican."</t>
+  </si>
+  <si>
+    <t>Within-question distance between beliefs reported on a continuum (normalized?)</t>
+  </si>
+  <si>
+    <r>
+      <t>Permanyer, I. The conceptualization and measurement of social polarization. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>J Econ Inequal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>10,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> 45–74 (2012).</t>
+    </r>
+  </si>
+  <si>
+    <t>Mathematical proofs</t>
+  </si>
+  <si>
+    <t>Single Issue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +393,29 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -252,6 +423,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color rgb="FF222222"/>
@@ -260,13 +432,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,17 +441,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -309,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,11 +511,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,90 +841,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824CCE-5FBE-5E48-9E92-D70FC6CBEBEE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="31.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="75.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="31.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="44" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="200" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="200" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="95" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -733,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC207-4273-4D48-BC7B-5C60CA585AA6}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,95 +1069,95 @@
     <col min="2" max="2" width="48.6640625" customWidth="1"/>
     <col min="3" max="3" width="61.83203125" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/documents/article/Polarization Measures.xlsx
+++ b/documents/article/Polarization Measures.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameshoughton/Google Drive/MIT PhD/Factionalism_Research/detective-game-interdependent-diffusion/documents/article/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4BC019-756F-0947-9AE8-0720CDE89F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D63E3A-F6CD-5A41-8E75-49CFAF4C42E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
+    <workbookView xWindow="14520" yWindow="-21040" windowWidth="28800" windowHeight="17540" xr2:uid="{F01117A4-CCCF-B543-9FAF-5B1A22C76FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -844,7 +843,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
